--- a/Dataset/Authors/CATO_inc_libr_frg.xlsx
+++ b/Dataset/Authors/CATO_inc_libr_frg.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\.shortcut-targets-by-id\1knjo21SeGbZ1-eICJFWxrgYeTavGEZsK\Latin_Compounds_Database\Vetus_Archivum_Oniga\Auctores\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\.shortcut-targets-by-id\1knjo21SeGbZ1-eICJFWxrgYeTavGEZsK\Latin_Compounds_Database\Vetus_Archivum_Oniga\Auctores\Incerta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{146162A3-B1D1-4BD6-943C-BBE9890631F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1443BFD4-AC39-43F8-A64B-469391ADB533}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{53148AD4-3D3D-4CB5-8197-B01ED67201C8}"/>
   </bookViews>
@@ -110,18 +110,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -136,27 +130,24 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
@@ -482,66 +473,66 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="40.77734375" style="6" customWidth="1"/>
-    <col min="2" max="3" width="8.88671875" style="6" customWidth="1"/>
-    <col min="4" max="16384" width="8.88671875" style="6"/>
+    <col min="1" max="1" width="40.77734375" style="3" customWidth="1"/>
+    <col min="2" max="3" width="8.88671875" style="3" customWidth="1"/>
+    <col min="4" max="16384" width="8.88671875" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="23.4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="3">
+      <c r="B1" s="2">
         <v>-3</v>
       </c>
-      <c r="C1" s="3">
+      <c r="C1" s="2">
         <v>-2</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="23.4" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="3"/>
+      <c r="C2" s="2"/>
     </row>
     <row r="3" spans="1:3" ht="23.4" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="3"/>
+      <c r="C3" s="2"/>
     </row>
     <row r="4" spans="1:3" ht="23.4" x14ac:dyDescent="0.3">
-      <c r="A4" s="3"/>
-      <c r="B4" s="4"/>
+      <c r="A4" s="2"/>
+      <c r="B4" s="5"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="5"/>
+      <c r="C5" s="6"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="6">
+      <c r="B6" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="6">
+      <c r="B7" s="3">
         <v>1</v>
       </c>
     </row>
